--- a/Data/OpenEndedCC.xlsx
+++ b/Data/OpenEndedCC.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mil/dUTScCo9t8SUZ4UPZ8BriYLAg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mh4taReZ1JEQerMWM9sQrTBLN7Asg=="/>
     </ext>
   </extLst>
 </workbook>
@@ -36,7 +36,7 @@
     <t>What are the biggest challenges and concerns for you and your family right now?</t>
   </si>
   <si>
-    <t>[Free response]</t>
+    <t>Open ended response</t>
   </si>
   <si>
     <t>02/23/2021-03/04/2021            03/09/2021-03/18/2021       03/23/2021-03/31/2021       04/05/2021-04/08/2021       04/12/2021-04/15/2021       04/19/2021-04/29/2021       05/02/2021-05/13/2021       05/14/2021-05/28/2021       06/02/2021-06/07/2021       06/08/2021-06/10/2021       06/14/2021-06/17/2021       06/22/2021-06/25/2021       06/28/2021-07/02/2021 08/06/2021-07/08/2021 07/12/2021-07/18/2021 07/20/2021-07/22/2021 07/26/2021-07/29/2021  08/09/2021-08/12/2021  08/02/2021-08/26/2021 09/01/2021-09/03/2021 09/07/2021-09/09/2021 09/15/2021-09/17/2021 09/20/2021-09/22/2021 09/29/2021-10/01/2021 10/05/2021-10/08/2021 10/13/2021-10/17/2021 10/17/2021-10/20/2021 10/26/2021-11/01/2021 11/01/2021-11/12/2021 11/10/2021-11/15/2021 11/02/2021-11/13/2021 11/19/2021-11/23/2021 11/29/2021-12/02/2021 12/07/2021-12/21/2021 12/13/2021-12/21/2021 12/08/2021-12/14/2021 11/29/2021-12/20/2021 01/11/2022-01/18/2022</t>
@@ -225,6 +225,9 @@
     <xf borderId="3" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="4" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -236,9 +239,6 @@
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -514,7 +514,7 @@
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1"/>
@@ -522,8 +522,8 @@
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -548,7 +548,7 @@
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1"/>
@@ -556,8 +556,8 @@
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -582,7 +582,7 @@
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1"/>
@@ -590,8 +590,8 @@
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="6"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="7"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -616,7 +616,7 @@
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1"/>
@@ -624,8 +624,8 @@
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="6"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -650,7 +650,7 @@
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1"/>
@@ -684,7 +684,7 @@
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1"/>
@@ -718,7 +718,7 @@
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1"/>
@@ -752,7 +752,7 @@
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1"/>
@@ -786,7 +786,7 @@
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -819,10 +819,10 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1"/>
@@ -856,7 +856,7 @@
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1"/>
@@ -893,7 +893,7 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F13" s="2"/>
